--- a/docs/model size.xlsx
+++ b/docs/model size.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\ComfyUI\custom_nodes\flux-poke\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1F6245-E431-4632-A402-AFC771887C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C36850-E928-4D77-8A7D-66DE55921FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="1860" windowWidth="23250" windowHeight="13875" xr2:uid="{1242DBAA-9107-4D6A-9FDE-13DEEE013EA9}"/>
+    <workbookView xWindow="29910" yWindow="1140" windowWidth="23250" windowHeight="13875" xr2:uid="{1242DBAA-9107-4D6A-9FDE-13DEEE013EA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -220,7 +220,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +247,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -265,10 +272,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -277,16 +285,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -620,13 +630,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06483FDC-EADF-4A00-804D-A6C2C5D5BFF9}">
   <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="P56" sqref="P56"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -634,14 +645,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="H1" s="8"/>
+      <c r="J1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="4"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D2" s="3" t="s">
@@ -666,11 +677,11 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <f>SUM(J4:J64)</f>
         <v>11898322944</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="6">
         <f>SUM(K4:K64)</f>
         <v>3065920</v>
       </c>
@@ -693,11 +704,11 @@
         <f>IF(C4=1,C4*B4,0)</f>
         <v>3072</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -717,11 +728,11 @@
         <f t="shared" ref="E5:E55" si="0">IF(C5=1,C5*B5,0)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -741,11 +752,11 @@
         <f t="shared" si="0"/>
         <v>9216</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -765,11 +776,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -789,11 +800,11 @@
         <f t="shared" si="0"/>
         <v>12288</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -813,11 +824,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -837,11 +848,11 @@
         <f t="shared" si="0"/>
         <v>3072</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -861,11 +872,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -885,11 +896,11 @@
         <f t="shared" si="0"/>
         <v>18432</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -909,31 +920,31 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <f>SUM(D4:D13)</f>
         <v>169869312</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <f>SUM(E4:E13)</f>
         <v>46080</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="7">
+      <c r="I13" s="5"/>
+      <c r="J13" s="6">
         <f>G13*19</f>
         <v>3227516928</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="6">
         <f>H13*19</f>
         <v>875520</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -953,11 +964,15 @@
         <f t="shared" si="0"/>
         <v>3072</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="F15" s="9">
+        <f>SUM(D15:E15)/G$24</f>
+        <v>1.808449074074074E-5</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -977,11 +992,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="F16" s="9">
+        <f t="shared" ref="F16:F24" si="2">SUM(D16:E16)/G$24</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -1001,11 +1020,15 @@
         <f t="shared" si="0"/>
         <v>9216</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+      <c r="F17" s="9">
+        <f t="shared" si="2"/>
+        <v>5.4253472222222219E-5</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -1025,11 +1048,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+      <c r="F18" s="9">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -1049,11 +1076,15 @@
         <f t="shared" si="0"/>
         <v>12288</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="F19" s="9">
+        <f t="shared" si="2"/>
+        <v>7.2337962962962959E-5</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -1073,11 +1104,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+      <c r="F20" s="9">
+        <f t="shared" si="2"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -1097,11 +1132,15 @@
         <f t="shared" si="0"/>
         <v>3072</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
+      <c r="F21" s="9">
+        <f t="shared" si="2"/>
+        <v>1.808449074074074E-5</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1121,11 +1160,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="F22" s="9">
+        <f t="shared" si="2"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -1145,11 +1188,15 @@
         <f t="shared" si="0"/>
         <v>18432</v>
       </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
+      <c r="F23" s="9">
+        <f t="shared" si="2"/>
+        <v>1.0850694444444444E-4</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -1169,55 +1216,59 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="6">
+      <c r="F24" s="9">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G24" s="5">
         <f>SUM(D15:D24)</f>
         <v>169869312</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="5">
         <f>SUM(E15:E24)</f>
         <v>46080</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="7">
+      <c r="I24" s="5"/>
+      <c r="J24" s="6">
         <f>G24*19</f>
         <v>3227516928</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="6">
         <f>H24*19</f>
         <v>875520</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="6">
         <f>J13+J24</f>
         <v>6455033856</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="6">
         <f>K13+K24</f>
         <v>1751040</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -1237,11 +1288,15 @@
         <f t="shared" si="0"/>
         <v>21504</v>
       </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
+      <c r="F28" s="9">
+        <f>SUM(D28:E28)/G$33</f>
+        <v>1.5190972222222222E-4</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -1261,11 +1316,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
+      <c r="F29" s="9">
+        <f t="shared" ref="F29:F33" si="3">SUM(D29:E29)/G$33</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -1285,11 +1344,15 @@
         <f t="shared" si="0"/>
         <v>3072</v>
       </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
+      <c r="F30" s="9">
+        <f t="shared" si="3"/>
+        <v>2.170138888888889E-5</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -1309,11 +1372,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
+      <c r="F31" s="9">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -1333,11 +1400,15 @@
         <f t="shared" si="0"/>
         <v>9216</v>
       </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
+      <c r="F32" s="9">
+        <f t="shared" si="3"/>
+        <v>6.5104166666666666E-5</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -1357,47 +1428,51 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G33" s="6">
+      <c r="F33" s="9">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="G33" s="5">
         <f>SUM(D28:D33)</f>
         <v>141557760</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="5">
         <f>SUM(E28:E33)</f>
         <v>33792</v>
       </c>
-      <c r="I33" s="6"/>
-      <c r="J33" s="7">
+      <c r="I33" s="5"/>
+      <c r="J33" s="6">
         <f>G33*38</f>
         <v>5379194880</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="6">
         <f>H33*38</f>
         <v>1284096</v>
       </c>
-      <c r="M33" s="7">
+      <c r="M33" s="6">
         <f>J33</f>
         <v>5379194880</v>
       </c>
-      <c r="N33" s="7">
+      <c r="N33" s="6">
         <f>K33</f>
         <v>1284096</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -1417,11 +1492,11 @@
         <f t="shared" si="0"/>
         <v>3072</v>
       </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -1441,11 +1516,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -1465,11 +1540,11 @@
         <f t="shared" si="0"/>
         <v>3072</v>
       </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -1489,11 +1564,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -1513,11 +1588,11 @@
         <f t="shared" si="0"/>
         <v>3072</v>
       </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -1537,11 +1612,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -1561,11 +1636,11 @@
         <f t="shared" si="0"/>
         <v>3072</v>
       </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -1585,11 +1660,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
@@ -1609,11 +1684,11 @@
         <f t="shared" si="0"/>
         <v>3072</v>
       </c>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -1633,11 +1708,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -1657,11 +1732,11 @@
         <f t="shared" si="0"/>
         <v>6144</v>
       </c>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
@@ -1681,11 +1756,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -1705,11 +1780,11 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -1729,11 +1804,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -1753,11 +1828,11 @@
         <f t="shared" si="0"/>
         <v>3072</v>
       </c>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -1777,11 +1852,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -1801,11 +1876,11 @@
         <f t="shared" si="0"/>
         <v>3072</v>
       </c>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
@@ -1825,11 +1900,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
@@ -1849,11 +1924,11 @@
         <f t="shared" si="0"/>
         <v>3072</v>
       </c>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
@@ -1873,33 +1948,33 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G55" s="5">
         <f>SUM(D36:D55)</f>
         <v>64094208</v>
       </c>
-      <c r="H55" s="6">
+      <c r="H55" s="5">
         <f>SUM(E36:E55)</f>
         <v>30784</v>
       </c>
-      <c r="I55" s="6"/>
-      <c r="J55" s="7">
+      <c r="I55" s="5"/>
+      <c r="J55" s="6">
         <f>G55</f>
         <v>64094208</v>
       </c>
-      <c r="K55" s="7">
+      <c r="K55" s="6">
         <f>H55</f>
         <v>30784</v>
       </c>
-      <c r="L55" s="5"/>
-      <c r="M55" s="7">
+      <c r="L55" s="4"/>
+      <c r="M55" s="6">
         <f>J55</f>
         <v>64094208</v>
       </c>
-      <c r="N55" s="7">
+      <c r="N55" s="6">
         <f>K55</f>
         <v>30784</v>
       </c>
-      <c r="P55" s="6">
+      <c r="P55" s="5">
         <f>M55+N55</f>
         <v>64124992</v>
       </c>
@@ -1969,7 +2044,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B2">
